--- a/ExcelFiles/TestData.xlsx
+++ b/ExcelFiles/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE809895-8523-4F4B-B047-0BB9FBF72916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0AAB17-091F-49F8-924E-890F605C2F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextBoxData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="203">
   <si>
     <t>Full Name</t>
   </si>
@@ -616,21 +616,6 @@
     <t>UploadFilePath</t>
   </si>
   <si>
-    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_34_2025_01_34_51.png</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_35_2025_01_35_08.png</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_35_2025_01_35_27.png</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_35_2025_01_35_54.png</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_36_2025_01_36_09.png</t>
-  </si>
-  <si>
     <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_04_2025_02_04_03.png</t>
   </si>
   <si>
@@ -644,13 +629,18 @@
   </si>
   <si>
     <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_07_2025_02_07_42.png</t>
+  </si>
+  <si>
+    <t>NameId</t>
+  </si>
+  <si>
+    <t>FormId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1015,310 +1005,373 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.44140625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.6640625"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101011</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>101012</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>101013</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>101014</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>101015</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>101016</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>101017</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>101018</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>101019</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>101020</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>101021</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>101022</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>101023</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>101024</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>101025</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>101026</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>101027</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>101028</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>101029</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>101030</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1333,857 +1386,966 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="108.98046875"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101011</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>9876543210</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>32874</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s" s="0">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="N2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>101012</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>9123456780</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>33649</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M3" t="s" s="0">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="N3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>101013</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>9988776655</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>32222</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M4" t="s" s="0">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="N4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>101014</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>9871234567</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>34799</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M5" t="s" s="0">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="N5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>101015</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>9123456789</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>33383</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M6" t="s" s="0">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="N6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>101016</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>9876543211</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>34150</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="N7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>101017</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>9988776654</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>31970</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="N8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>101018</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>9871234568</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>34551</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="N9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>101019</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>9123456790</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>33134</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="N10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>101020</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>9876543212</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>33899</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="N11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>101021</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>9988776653</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>32823</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="N12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>101022</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>9871234569</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>33579</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="N13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>101023</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>9123456791</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>32876</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="N14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>101024</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>9876543213</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>34016</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="N15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>101025</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>9988776652</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>32230</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="N16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>101026</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>9871234570</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>34798</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="N17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>101027</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>9123456792</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>33372</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="N18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>101028</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>9876543214</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>33774</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>101029</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>9988776651</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>31981</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>101030</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>9871234571</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>34552</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>194</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="mailto:ankush.agle@test.com" xr:uid="{73566F41-BD28-4829-AB07-296228A7FA75}"/>
-    <hyperlink ref="C3" r:id="rId2" display="mailto:priya.sharma@test.com" xr:uid="{4176B491-34BB-4675-AC94-B55A0C525EA2}"/>
-    <hyperlink ref="C4" r:id="rId3" display="mailto:rahul.verma@test.com" xr:uid="{818D8897-4DF2-4D4D-8757-07CD14775EC9}"/>
-    <hyperlink ref="C5" r:id="rId4" display="mailto:sneha.patil@test.com" xr:uid="{82F28564-92B8-4029-9857-6222D7E15546}"/>
-    <hyperlink ref="C6" r:id="rId5" display="mailto:karan.mehta@test.com" xr:uid="{325E9BDA-1817-42CA-B497-F8E5D268EE86}"/>
-    <hyperlink ref="C7" r:id="rId6" display="mailto:pooja.nair@test.com" xr:uid="{930EF76C-6E07-4876-87D5-20A10DBE53DE}"/>
-    <hyperlink ref="C8" r:id="rId7" display="mailto:amit.deshmukh@test.com" xr:uid="{F8821440-D9B5-4326-9827-2EB1EC269010}"/>
-    <hyperlink ref="C9" r:id="rId8" display="mailto:anjali.rao@test.com" xr:uid="{0B4051A5-4796-48A0-A0FA-8E1181B5875B}"/>
-    <hyperlink ref="C10" r:id="rId9" display="mailto:saurabh.yadav@test.com" xr:uid="{19486E1E-B6E8-430D-B74B-3BF8E4E72796}"/>
-    <hyperlink ref="C11" r:id="rId10" display="mailto:neha.kulkarni@test.com" xr:uid="{B897FADA-4370-4ED4-9ECE-CB0F42C0DECE}"/>
-    <hyperlink ref="C12" r:id="rId11" display="mailto:manish.gupta@test.com" xr:uid="{12D86F4C-CAE8-4A20-9282-FB097E8C027F}"/>
-    <hyperlink ref="C13" r:id="rId12" display="mailto:ayesha.khan@test.com" xr:uid="{473E0526-7708-48C4-AB48-C8EE689E5D7B}"/>
-    <hyperlink ref="C14" r:id="rId13" display="mailto:rohan.joshi@test.com" xr:uid="{305C97EC-44F7-47ED-A85E-41D99D6ED595}"/>
-    <hyperlink ref="C15" r:id="rId14" display="mailto:meena.rathi@test.com" xr:uid="{6E68B495-05AB-4F76-824A-1B7102A3B6D8}"/>
-    <hyperlink ref="C16" r:id="rId15" display="mailto:deepak.singh@test.com" xr:uid="{7A3B9C41-5F2B-4CFB-AEEB-67D0EAE616CA}"/>
-    <hyperlink ref="C17" r:id="rId16" display="mailto:kavita.bansal@test.com" xr:uid="{904682FD-B6C1-4B77-92E4-7DB842D176E4}"/>
-    <hyperlink ref="C18" r:id="rId17" display="mailto:rajesh.kumar@test.com" xr:uid="{B26B9C5E-D058-4064-8E28-D5BF5DFBE896}"/>
-    <hyperlink ref="C19" r:id="rId18" display="mailto:swati.mishra@test.com" xr:uid="{5F8EF610-22E2-479C-B8BC-294EB5CA78C9}"/>
-    <hyperlink ref="C20" r:id="rId19" display="mailto:vikram.shetty@test.com" xr:uid="{753D482F-7843-433B-B0CD-9393B96B5740}"/>
-    <hyperlink ref="C21" r:id="rId20" display="mailto:tanya.desai@test.com" xr:uid="{D4C5CC2B-5ADA-4242-B5D2-3EBC32BF6942}"/>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:ankush.agle@test.com" xr:uid="{73566F41-BD28-4829-AB07-296228A7FA75}"/>
+    <hyperlink ref="D3" r:id="rId2" display="mailto:priya.sharma@test.com" xr:uid="{4176B491-34BB-4675-AC94-B55A0C525EA2}"/>
+    <hyperlink ref="D4" r:id="rId3" display="mailto:rahul.verma@test.com" xr:uid="{818D8897-4DF2-4D4D-8757-07CD14775EC9}"/>
+    <hyperlink ref="D5" r:id="rId4" display="mailto:sneha.patil@test.com" xr:uid="{82F28564-92B8-4029-9857-6222D7E15546}"/>
+    <hyperlink ref="D6" r:id="rId5" display="mailto:karan.mehta@test.com" xr:uid="{325E9BDA-1817-42CA-B497-F8E5D268EE86}"/>
+    <hyperlink ref="D7" r:id="rId6" display="mailto:pooja.nair@test.com" xr:uid="{930EF76C-6E07-4876-87D5-20A10DBE53DE}"/>
+    <hyperlink ref="D8" r:id="rId7" display="mailto:amit.deshmukh@test.com" xr:uid="{F8821440-D9B5-4326-9827-2EB1EC269010}"/>
+    <hyperlink ref="D9" r:id="rId8" display="mailto:anjali.rao@test.com" xr:uid="{0B4051A5-4796-48A0-A0FA-8E1181B5875B}"/>
+    <hyperlink ref="D10" r:id="rId9" display="mailto:saurabh.yadav@test.com" xr:uid="{19486E1E-B6E8-430D-B74B-3BF8E4E72796}"/>
+    <hyperlink ref="D11" r:id="rId10" display="mailto:neha.kulkarni@test.com" xr:uid="{B897FADA-4370-4ED4-9ECE-CB0F42C0DECE}"/>
+    <hyperlink ref="D12" r:id="rId11" display="mailto:manish.gupta@test.com" xr:uid="{12D86F4C-CAE8-4A20-9282-FB097E8C027F}"/>
+    <hyperlink ref="D13" r:id="rId12" display="mailto:ayesha.khan@test.com" xr:uid="{473E0526-7708-48C4-AB48-C8EE689E5D7B}"/>
+    <hyperlink ref="D14" r:id="rId13" display="mailto:rohan.joshi@test.com" xr:uid="{305C97EC-44F7-47ED-A85E-41D99D6ED595}"/>
+    <hyperlink ref="D15" r:id="rId14" display="mailto:meena.rathi@test.com" xr:uid="{6E68B495-05AB-4F76-824A-1B7102A3B6D8}"/>
+    <hyperlink ref="D16" r:id="rId15" display="mailto:deepak.singh@test.com" xr:uid="{7A3B9C41-5F2B-4CFB-AEEB-67D0EAE616CA}"/>
+    <hyperlink ref="D17" r:id="rId16" display="mailto:kavita.bansal@test.com" xr:uid="{904682FD-B6C1-4B77-92E4-7DB842D176E4}"/>
+    <hyperlink ref="D18" r:id="rId17" display="mailto:rajesh.kumar@test.com" xr:uid="{B26B9C5E-D058-4064-8E28-D5BF5DFBE896}"/>
+    <hyperlink ref="D19" r:id="rId18" display="mailto:swati.mishra@test.com" xr:uid="{5F8EF610-22E2-479C-B8BC-294EB5CA78C9}"/>
+    <hyperlink ref="D20" r:id="rId19" display="mailto:vikram.shetty@test.com" xr:uid="{753D482F-7843-433B-B0CD-9393B96B5740}"/>
+    <hyperlink ref="D21" r:id="rId20" display="mailto:tanya.desai@test.com" xr:uid="{D4C5CC2B-5ADA-4242-B5D2-3EBC32BF6942}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/ExcelFiles/TestData.xlsx
+++ b/ExcelFiles/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ExcelFiles\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="208">
   <si>
     <t>Full Name</t>
   </si>
@@ -635,12 +635,28 @@
   </si>
   <si>
     <t>FormId</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_10_2025_09_10_21.png</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_10_2025_09_10_59.png</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_12_2025_09_12_12.png</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_12_2025_09_12_45.png</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Ahmedabad\ANKUSH_FRAMEWORK\ScreenShots\Validation\valdn01_13_2025_09_13_26.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1013,13 +1029,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.44140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1036,7 +1052,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>101011</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1053,7 +1069,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>101012</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1070,7 +1086,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>101013</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1087,7 +1103,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>101014</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1104,7 +1120,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>101015</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1121,7 +1137,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>101016</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1138,7 +1154,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>101017</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1155,7 +1171,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>101018</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1172,7 +1188,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>101019</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1189,7 +1205,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>101020</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1206,7 +1222,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>101021</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1223,7 +1239,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>101022</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1240,7 +1256,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>101023</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1257,7 +1273,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>101024</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1274,7 +1290,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>101025</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1291,7 +1307,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>101026</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1308,7 +1324,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>101027</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1325,7 +1341,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>101028</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1342,7 +1358,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="0">
         <v>101029</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1359,7 +1375,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="0">
         <v>101030</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1394,12 +1410,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.88671875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="108.98046875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1443,7 +1459,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>101011</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1482,12 +1498,12 @@
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
-        <v>196</v>
+      <c r="N2" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>101012</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1526,12 +1542,12 @@
       <c r="M3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N3" t="s">
-        <v>197</v>
+      <c r="N3" t="s" s="0">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>101013</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1570,12 +1586,12 @@
       <c r="M4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N4" t="s">
-        <v>198</v>
+      <c r="N4" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>101014</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1614,12 +1630,12 @@
       <c r="M5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N5" t="s">
-        <v>199</v>
+      <c r="N5" t="s" s="0">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>101015</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1658,12 +1674,12 @@
       <c r="M6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N6" t="s">
-        <v>200</v>
+      <c r="N6" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>101016</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1702,12 +1718,12 @@
       <c r="M7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>101017</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1746,12 +1762,12 @@
       <c r="M8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>101018</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1790,12 +1806,12 @@
       <c r="M9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>101019</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1834,12 +1850,12 @@
       <c r="M10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>101020</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1878,12 +1894,12 @@
       <c r="M11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>101021</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1922,12 +1938,12 @@
       <c r="M12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>101022</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1966,12 +1982,12 @@
       <c r="M13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>101023</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2010,12 +2026,12 @@
       <c r="M14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>101024</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2054,12 +2070,12 @@
       <c r="M15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>101025</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2098,12 +2114,12 @@
       <c r="M16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>101026</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2142,12 +2158,12 @@
       <c r="M17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>101027</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2186,12 +2202,12 @@
       <c r="M18" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>101028</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2230,12 +2246,12 @@
       <c r="M19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="0">
         <v>101029</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2274,12 +2290,12 @@
       <c r="M20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="0">
         <v>101030</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2318,7 +2334,7 @@
       <c r="M21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" t="s" s="0">
         <v>200</v>
       </c>
     </row>
